--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SBZalesky\Documents\PIX\PIXFramework\REFramework_Queue-main\REFramework_Queue-main\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00112561-837F-4920-B640-E109E2C421A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9C022D-4F8D-45D9-BDF2-BAB0DEC12C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>Имя</t>
   </si>
@@ -181,6 +181,15 @@
   </si>
   <si>
     <t>WI4</t>
+  </si>
+  <si>
+    <t>ReportFolder</t>
+  </si>
+  <si>
+    <t>Data\Reports</t>
+  </si>
+  <si>
+    <t>Где хранить репорты</t>
   </si>
 </sst>
 </file>
@@ -279,7 +288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -329,6 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -612,14 +622,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="69.7109375" style="9" customWidth="1"/>
     <col min="3" max="3" width="50.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" style="9" customWidth="1"/>
     <col min="5" max="5" width="73.28515625" style="7" customWidth="1"/>
@@ -786,7 +796,7 @@
       <c r="A17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -807,7 +817,15 @@
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
+      <c r="A19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SBZalesky\Documents\PIX\PIXFramework\REFramework_Queue-main\REFramework_Queue-main\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SBZalesky\Documents\GitHub\SBZalesky_PIX_YearReport\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9C022D-4F8D-45D9-BDF2-BAB0DEC12C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2883B9-4FB0-4265-8A67-9CE50B03627C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>Имя</t>
   </si>
@@ -181,15 +181,6 @@
   </si>
   <si>
     <t>WI4</t>
-  </si>
-  <si>
-    <t>ReportFolder</t>
-  </si>
-  <si>
-    <t>Data\Reports</t>
-  </si>
-  <si>
-    <t>Где хранить репорты</t>
   </si>
 </sst>
 </file>
@@ -288,7 +279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -338,7 +329,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -623,7 +613,7 @@
   <dimension ref="A1:E544"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -796,7 +786,7 @@
       <c r="A17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -817,15 +807,8 @@
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="3"/>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SBZalesky\Documents\GitHub\SBZalesky_PIX_YearReport\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2883B9-4FB0-4265-8A67-9CE50B03627C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38E4C5F-D763-4B70-A68A-E97071656D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>Имя</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>WI4</t>
+  </si>
+  <si>
+    <t>Path</t>
   </si>
 </sst>
 </file>
@@ -613,7 +616,7 @@
   <dimension ref="A1:E544"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -735,7 +738,9 @@
       <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="7"/>
